--- a/assets/templates/template.xlsx
+++ b/assets/templates/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vickylee/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B266168F-7231-AB46-8F39-57C9C23D3A02}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BA9974-5B78-1946-AB74-9D03A2B4BE33}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="5700" windowWidth="28260" windowHeight="16880" xr2:uid="{61F91A99-E172-BB4F-AB71-96BE985637E0}"/>
+    <workbookView xWindow="20220" yWindow="7860" windowWidth="28260" windowHeight="16880" xr2:uid="{61F91A99-E172-BB4F-AB71-96BE985637E0}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -34,17 +34,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>givenId</t>
+    <t>Student Full Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>fullName</t>
+    <t>CHAN Tai Man  (Demo Student)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CHAN Tai Man </t>
+    <t>Student_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEE Min Ho (Demo Student)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHEUNG Chi Lam (Demo Student)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -52,7 +60,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -93,13 +101,28 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -119,7 +142,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -130,6 +153,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -449,9 +475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AC16319-5C86-5848-9687-17BCEAD38A84}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
@@ -461,26 +485,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>12345678</v>
+        <v>17222333</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
+      <c r="A3">
+        <v>18333444</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:4">
+      <c r="A4">
+        <v>19555666</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
       <c r="D4" s="1"/>
     </row>
     <row r="5" spans="1:4">
